--- a/persentasemerokok.xlsx
+++ b/persentasemerokok.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amalia\Downloads\KULIAH\SEMESTER 3\PEMFU\TUGAS BESAR\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6A7E74-D3C7-44FC-B183-2CF1B0706BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85D2CA-F842-4E61-89D9-C32F0F2883A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{FE52BF46-4974-44BC-B4D0-C8B737D336EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FE52BF46-4974-44BC-B4D0-C8B737D336EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="JK" sheetId="3" r:id="rId2"/>
-    <sheet name="Umur" sheetId="4" r:id="rId3"/>
-    <sheet name="Tinggal" sheetId="5" r:id="rId4"/>
+    <sheet name="JK" sheetId="3" r:id="rId1"/>
+    <sheet name="Umur" sheetId="4" r:id="rId2"/>
+    <sheet name="Tinggal" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,35 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Tahun</t>
   </si>
   <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
     <t>Laki-laki</t>
   </si>
   <si>
     <t>Perempuan</t>
   </si>
   <si>
-    <t>Umur</t>
-  </si>
-  <si>
-    <t>10-12</t>
-  </si>
-  <si>
-    <t>13-15</t>
-  </si>
-  <si>
-    <t>16-18</t>
-  </si>
-  <si>
-    <t>Tempat Tinggal</t>
-  </si>
-  <si>
     <t>Kota</t>
   </si>
   <si>
@@ -158,9 +139,6 @@
     <t>9.96</t>
   </si>
   <si>
-    <t>Persentase Merokok Pada Penduduk Usia Kurang Dari 18 Tahun</t>
-  </si>
-  <si>
     <t>Berdasarkan Jenis Kelamin</t>
   </si>
   <si>
@@ -174,13 +152,16 @@
   </si>
   <si>
     <t>16-18 Tahun</t>
+  </si>
+  <si>
+    <t>Berdasarkan Tempat Tinggal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,27 +177,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002142"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -267,30 +234,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,195 +564,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5701850-2597-4F95-952A-89DD2F8C7A56}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD74933F-1666-4EE6-811E-8BD560421104}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -805,21 +578,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -827,10 +600,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -838,10 +611,10 @@
         <v>2016</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -849,10 +622,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -860,10 +633,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -874,11 +647,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FE2EE-6EC4-4726-846E-F96281B6A482}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -891,25 +664,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -917,13 +690,13 @@
         <v>2015</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -931,13 +704,13 @@
         <v>2016</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -945,13 +718,13 @@
         <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -959,13 +732,13 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -976,32 +749,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C911EE1-5E14-4026-936F-D9931D4579A9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1009,10 +787,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1020,10 +798,10 @@
         <v>2016</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1031,10 +809,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1042,10 +820,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
